--- a/dataSources/WSR/BEQOM.xlsx
+++ b/dataSources/WSR/BEQOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7FB178-3BAE-4E2F-8A9D-18A3F998456C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{2E7FB178-3BAE-4E2F-8A9D-18A3F998456C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{409E5019-0D34-4AEF-B05D-2B6207BA77F4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="14" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="7" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="18 Dec 2023" sheetId="12" r:id="rId12"/>
     <sheet name="26 Dec 2023" sheetId="15" r:id="rId13"/>
     <sheet name="2 Jan 2024" sheetId="16" r:id="rId14"/>
+    <sheet name="8 Jan 2024" sheetId="17" r:id="rId15"/>
+    <sheet name="16 Jan 2024" sheetId="18" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="157">
   <si>
     <t>Task Name</t>
   </si>
@@ -531,6 +533,29 @@
   </si>
   <si>
     <t>Sizing and Backlog refinement</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <charset val="1"/>
+      </rPr>
+      <t>izing and backlog refinement</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint Review &amp; Retrospective meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sprint planning meeting</t>
+  </si>
+  <si>
+    <t>Sprint planning meeting</t>
   </si>
 </sst>
 </file>
@@ -876,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1032,6 +1057,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1331,36 +1359,36 @@
   </sheetPr>
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U3" workbookViewId="0">
+    <sheetView topLeftCell="U3" workbookViewId="0">
       <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="9"/>
+    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="9"/>
+    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="9"/>
+    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -1479,7 +1507,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8">
+    <row r="3" spans="1:29" ht="58.9">
       <c r="A3" s="21" t="s">
         <v>31</v>
       </c>
@@ -1516,7 +1544,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="21" t="s">
         <v>37</v>
       </c>
@@ -1563,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -1607,101 +1635,101 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.109375" style="1"/>
-    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65" t="s">
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="65" t="s">
+      <c r="V1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="65" t="s">
+      <c r="W1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="65"/>
+      <c r="X1" s="66"/>
       <c r="Y1" s="34" t="s">
         <v>19</v>
       </c>
@@ -1716,21 +1744,21 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="55" t="s">
         <v>120</v>
       </c>
       <c r="B2" s="55">
         <v>2.5</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="67">
         <v>30</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="29" t="s">
         <v>121</v>
       </c>
@@ -1743,7 +1771,7 @@
       <c r="J2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="65"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="29" t="s">
         <v>122</v>
       </c>
@@ -1756,17 +1784,17 @@
       <c r="O2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
       <c r="R2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
       <c r="Y2" s="37" t="s">
         <v>29</v>
       </c>
@@ -1781,17 +1809,17 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.4">
+    <row r="3" spans="1:29" ht="44.45">
       <c r="A3" s="56" t="s">
         <v>123</v>
       </c>
       <c r="B3" s="56">
         <v>0.5</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="30" t="s">
         <v>124</v>
       </c>
@@ -1802,7 +1830,7 @@
       <c r="J3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="65"/>
+      <c r="K3" s="66"/>
       <c r="L3" s="30" t="s">
         <v>125</v>
       </c>
@@ -1811,15 +1839,15 @@
       </c>
       <c r="N3" s="44"/>
       <c r="O3" s="44"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
       <c r="Y3" s="37" t="s">
         <v>35</v>
       </c>
@@ -1834,17 +1862,17 @@
         <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="56" t="s">
         <v>126</v>
       </c>
       <c r="B4" s="56">
         <v>15</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="30" t="s">
         <v>127</v>
       </c>
@@ -1853,20 +1881,20 @@
       </c>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
       <c r="Y4" s="37" t="s">
         <v>38</v>
       </c>
@@ -1888,10 +1916,10 @@
       <c r="B5" s="56">
         <v>12</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="29" t="s">
         <v>129</v>
       </c>
@@ -1904,20 +1932,20 @@
       <c r="J5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
       <c r="Y5" s="37" t="s">
         <v>41</v>
       </c>
@@ -1932,13 +1960,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="A6" s="3"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="30" t="s">
         <v>130</v>
       </c>
@@ -1947,20 +1975,20 @@
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="44"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
       <c r="Y6" s="37" t="s">
         <v>44</v>
       </c>
@@ -1977,29 +2005,29 @@
     </row>
     <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="8"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="39"/>
@@ -2011,30 +2039,30 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
@@ -2042,30 +2070,30 @@
       <c r="AC8" s="9"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
@@ -2073,30 +2101,30 @@
       <c r="AC9" s="9"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
@@ -2116,101 +2144,101 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.109375" style="1"/>
-    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65" t="s">
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="65" t="s">
+      <c r="V1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="65" t="s">
+      <c r="W1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="65"/>
+      <c r="X1" s="66"/>
       <c r="Y1" s="34" t="s">
         <v>19</v>
       </c>
@@ -2232,14 +2260,14 @@
       <c r="B2" s="55">
         <v>1.5</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="67">
         <v>32</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="29" t="s">
         <v>121</v>
       </c>
@@ -2252,7 +2280,7 @@
       <c r="J2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="65"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="58" t="s">
         <v>122</v>
       </c>
@@ -2265,17 +2293,17 @@
       <c r="O2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
       <c r="R2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
       <c r="Y2" s="37" t="s">
         <v>29</v>
       </c>
@@ -2290,17 +2318,17 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8">
+    <row r="3" spans="1:29" ht="58.9">
       <c r="A3" s="56" t="s">
         <v>131</v>
       </c>
       <c r="B3" s="56">
         <v>2</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="30" t="s">
         <v>132</v>
       </c>
@@ -2313,7 +2341,7 @@
       <c r="J3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="65"/>
+      <c r="K3" s="66"/>
       <c r="L3" s="31" t="s">
         <v>125</v>
       </c>
@@ -2322,15 +2350,15 @@
       </c>
       <c r="N3" s="44"/>
       <c r="O3" s="44"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
       <c r="Y3" s="37" t="s">
         <v>35</v>
       </c>
@@ -2345,17 +2373,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4">
+    <row r="4" spans="1:29" ht="44.45">
       <c r="A4" s="56" t="s">
         <v>133</v>
       </c>
       <c r="B4" s="56">
         <v>1</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="30" t="s">
         <v>127</v>
       </c>
@@ -2364,7 +2392,7 @@
       </c>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
-      <c r="K4" s="65"/>
+      <c r="K4" s="66"/>
       <c r="L4" s="31" t="s">
         <v>134</v>
       </c>
@@ -2374,16 +2402,16 @@
       <c r="N4" s="59">
         <v>45273</v>
       </c>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
       <c r="Y4" s="37" t="s">
         <v>38</v>
       </c>
@@ -2405,10 +2433,10 @@
       <c r="B5" s="40">
         <v>15</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="29" t="s">
         <v>137</v>
       </c>
@@ -2421,20 +2449,20 @@
       <c r="J5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
       <c r="Y5" s="37" t="s">
         <v>41</v>
       </c>
@@ -2449,17 +2477,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="A6" s="40" t="s">
         <v>138</v>
       </c>
       <c r="B6" s="40">
         <v>12.5</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="30" t="s">
         <v>139</v>
       </c>
@@ -2470,20 +2498,20 @@
         <v>34</v>
       </c>
       <c r="J6" s="44"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
       <c r="Y6" s="37" t="s">
         <v>44</v>
       </c>
@@ -2499,30 +2527,30 @@
       </c>
     </row>
     <row r="7" spans="1:29" ht="57.6">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="39"/>
@@ -2534,30 +2562,30 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
@@ -2565,30 +2593,30 @@
       <c r="AC8" s="9"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
@@ -2596,30 +2624,30 @@
       <c r="AC9" s="9"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
@@ -2639,101 +2667,101 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="60" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.109375" style="1"/>
-    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65" t="s">
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="65" t="s">
+      <c r="V1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="65" t="s">
+      <c r="W1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="65"/>
+      <c r="X1" s="66"/>
       <c r="Y1" s="34" t="s">
         <v>19</v>
       </c>
@@ -2755,23 +2783,23 @@
       <c r="B2" s="55">
         <v>1.5</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="67">
         <v>32</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="61" t="s">
         <v>140</v>
       </c>
@@ -2781,18 +2809,18 @@
       <c r="N2" s="62">
         <v>45278</v>
       </c>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
       <c r="R2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
       <c r="Y2" s="37" t="s">
         <v>29</v>
       </c>
@@ -2807,26 +2835,26 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.4">
+    <row r="3" spans="1:29" ht="44.45">
       <c r="A3" s="56" t="s">
         <v>141</v>
       </c>
       <c r="B3" s="56">
         <v>1</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
       <c r="L3" s="61" t="s">
         <v>122</v>
       </c>
@@ -2834,16 +2862,16 @@
         <v>72</v>
       </c>
       <c r="N3" s="61"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
       <c r="Y3" s="37" t="s">
         <v>35</v>
       </c>
@@ -2858,26 +2886,26 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4">
+    <row r="4" spans="1:29" ht="44.45">
       <c r="A4" s="37" t="s">
         <v>142</v>
       </c>
       <c r="B4" s="40">
         <v>15</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="65"/>
+      <c r="K4" s="66"/>
       <c r="L4" s="61" t="s">
         <v>125</v>
       </c>
@@ -2885,16 +2913,16 @@
         <v>28</v>
       </c>
       <c r="N4" s="61"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
       <c r="Y4" s="37" t="s">
         <v>38</v>
       </c>
@@ -2916,32 +2944,32 @@
       <c r="B5" s="40">
         <v>6.5</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
       <c r="Y5" s="37" t="s">
         <v>41</v>
       </c>
@@ -2956,39 +2984,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="A6" s="37" t="s">
         <v>144</v>
       </c>
       <c r="B6" s="40">
         <v>8</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
       <c r="Y6" s="37" t="s">
         <v>44</v>
       </c>
@@ -3005,29 +3033,29 @@
     </row>
     <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="8"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="39"/>
@@ -3039,30 +3067,30 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="68"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
@@ -3070,30 +3098,30 @@
       <c r="AC8" s="9"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="68"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
@@ -3101,30 +3129,30 @@
       <c r="AC9" s="9"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="68"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
@@ -3144,101 +3172,101 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.109375" style="1"/>
-    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65" t="s">
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="65" t="s">
+      <c r="V1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="65" t="s">
+      <c r="W1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="65"/>
+      <c r="X1" s="66"/>
       <c r="Y1" s="34" t="s">
         <v>19</v>
       </c>
@@ -3260,14 +3288,14 @@
       <c r="B2" s="40">
         <v>8</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="67">
         <v>8</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="29" t="s">
         <v>121</v>
       </c>
@@ -3280,7 +3308,7 @@
       <c r="J2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="65"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="58" t="s">
         <v>122</v>
       </c>
@@ -3293,17 +3321,17 @@
       <c r="O2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
       <c r="R2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
       <c r="Y2" s="37" t="s">
         <v>29</v>
       </c>
@@ -3318,13 +3346,13 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.4">
+    <row r="3" spans="1:29" ht="44.45">
       <c r="A3" s="56"/>
       <c r="B3" s="56"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="29" t="s">
         <v>146</v>
       </c>
@@ -3337,7 +3365,7 @@
       <c r="J3" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="K3" s="65"/>
+      <c r="K3" s="66"/>
       <c r="L3" s="31" t="s">
         <v>125</v>
       </c>
@@ -3346,15 +3374,15 @@
       </c>
       <c r="N3" s="44"/>
       <c r="O3" s="44"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
       <c r="Y3" s="37" t="s">
         <v>35</v>
       </c>
@@ -3369,13 +3397,13 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="56"/>
       <c r="B4" s="56"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="29" t="s">
         <v>147</v>
       </c>
@@ -3384,20 +3412,20 @@
       </c>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
       <c r="Y4" s="37" t="s">
         <v>38</v>
       </c>
@@ -3413,12 +3441,12 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="57.6">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="65"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="29" t="s">
         <v>148</v>
       </c>
@@ -3431,20 +3459,20 @@
       <c r="J5" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
       <c r="Y5" s="37" t="s">
         <v>41</v>
       </c>
@@ -3459,13 +3487,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="30" t="s">
         <v>149</v>
       </c>
@@ -3476,20 +3504,20 @@
         <v>34</v>
       </c>
       <c r="J6" s="44"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
       <c r="Y6" s="37" t="s">
         <v>44</v>
       </c>
@@ -3506,29 +3534,29 @@
     </row>
     <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="8"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
       <c r="I7" s="44"/>
       <c r="J7" s="44"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="39"/>
@@ -3540,30 +3568,30 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
@@ -3571,30 +3599,30 @@
       <c r="AC8" s="9"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
@@ -3602,30 +3630,30 @@
       <c r="AC9" s="9"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
@@ -3641,105 +3669,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4750780C-F289-42C6-8AC3-EA4130E81E52}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.109375" style="1"/>
-    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65" t="s">
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="65" t="s">
+      <c r="V1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="65" t="s">
+      <c r="W1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="65"/>
+      <c r="X1" s="66"/>
       <c r="Y1" s="34" t="s">
         <v>19</v>
       </c>
@@ -3761,14 +3789,14 @@
       <c r="B2" s="55">
         <v>1.5</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="67">
         <v>2</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="27" t="s">
         <v>121</v>
       </c>
@@ -3777,7 +3805,7 @@
       </c>
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
-      <c r="K2" s="65"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="64" t="s">
         <v>150</v>
       </c>
@@ -3786,17 +3814,17 @@
       </c>
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
       <c r="R2" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
       <c r="Y2" s="37" t="s">
         <v>29</v>
       </c>
@@ -3811,17 +3839,17 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2">
+    <row r="3" spans="1:29" ht="43.15">
       <c r="A3" s="56" t="s">
         <v>151</v>
       </c>
       <c r="B3" s="56">
         <v>0.5</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="27" t="s">
         <v>152</v>
       </c>
@@ -3830,7 +3858,7 @@
       </c>
       <c r="I3" s="29"/>
       <c r="J3" s="29"/>
-      <c r="K3" s="65"/>
+      <c r="K3" s="66"/>
       <c r="L3" s="64" t="s">
         <v>125</v>
       </c>
@@ -3839,15 +3867,15 @@
       </c>
       <c r="N3" s="44"/>
       <c r="O3" s="44"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
       <c r="Y3" s="37" t="s">
         <v>35</v>
       </c>
@@ -3862,31 +3890,31 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="56"/>
       <c r="B4" s="56"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="44"/>
       <c r="J4" s="44"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
       <c r="Y4" s="37" t="s">
         <v>38</v>
       </c>
@@ -3902,30 +3930,30 @@
       </c>
     </row>
     <row r="5" spans="1:29" ht="57.6">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="65"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="29"/>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="30"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
       <c r="Y5" s="37" t="s">
         <v>41</v>
       </c>
@@ -3940,31 +3968,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="30"/>
       <c r="H6" s="30"/>
       <c r="I6" s="57"/>
       <c r="J6" s="44"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
       <c r="Y6" s="37" t="s">
         <v>44</v>
       </c>
@@ -3981,29 +4009,29 @@
     </row>
     <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="8"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="65"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="30"/>
       <c r="H7" s="30"/>
       <c r="I7" s="44"/>
       <c r="J7" s="44"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="39"/>
@@ -4015,30 +4043,30 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
@@ -4046,30 +4074,30 @@
       <c r="AC8" s="9"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
@@ -4077,30 +4105,1026 @@
       <c r="AC9" s="9"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B672ACA1-E197-4B1C-B9E9-5D91F995A00B}">
+  <dimension ref="A1:AC10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="33">
+      <c r="A2" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="55">
+        <v>1</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="67">
+        <v>4</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="38">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="56">
+        <v>2</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="66"/>
+      <c r="L3" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="31"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" s="38">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="56">
+        <v>1</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="31"/>
+      <c r="K4" s="66"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="69"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="66"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z6" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="38">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="8"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC7" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="69"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="69"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="69"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D1839F-6EF4-4A16-927C-2D28B33E6D05}">
+  <dimension ref="A1:AC10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="1"/>
+    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.140625" style="1"/>
+    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="66" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="66" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="66" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="35" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="33">
+      <c r="A2" s="65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="55">
+        <v>1</v>
+      </c>
+      <c r="C2" s="66"/>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="67">
+        <v>4</v>
+      </c>
+      <c r="F2" s="66"/>
+      <c r="G2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="66"/>
+      <c r="L2" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="38">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="60.75">
+      <c r="A3" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="56">
+        <v>2</v>
+      </c>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="66"/>
+      <c r="L3" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="31"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC3" s="38">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45.75">
+      <c r="A4" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="56">
+        <v>1</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="31"/>
+      <c r="K4" s="66"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="76.5">
+      <c r="A5" s="69"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="66"/>
+      <c r="G5"/>
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
+      <c r="Y5" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z5" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="30.75">
+      <c r="A6" s="37"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z6" s="38">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC6" s="38">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="60.75">
+      <c r="A7" s="8"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC7" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="69"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="69"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="69"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
@@ -4123,33 +5147,33 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="9"/>
+    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="9"/>
+    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="9"/>
+    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -4224,7 +5248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -4306,7 +5330,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="21" t="s">
         <v>54</v>
       </c>
@@ -4349,7 +5373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -4396,33 +5420,33 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="9"/>
+    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="9"/>
+    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="9"/>
+    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -4497,7 +5521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -4564,7 +5588,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8">
+    <row r="3" spans="1:29" ht="58.9">
       <c r="A3" s="43" t="s">
         <v>62</v>
       </c>
@@ -4604,7 +5628,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="43" t="s">
         <v>65</v>
       </c>
@@ -4659,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="A6" s="21" t="s">
         <v>40</v>
       </c>
@@ -4712,33 +5736,33 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="9"/>
+    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="9"/>
+    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="9"/>
+    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -4813,7 +5837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -4879,7 +5903,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8">
+    <row r="3" spans="1:29" ht="58.9">
       <c r="A3" s="43" t="s">
         <v>62</v>
       </c>
@@ -4920,7 +5944,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="43" t="s">
         <v>65</v>
       </c>
@@ -4994,7 +6018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="A6" s="21" t="s">
         <v>40</v>
       </c>
@@ -5047,33 +6071,33 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="9"/>
+    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="9"/>
+    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="9"/>
+    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.140625" style="9"/>
+    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -5148,7 +6172,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -5214,7 +6238,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8">
+    <row r="3" spans="1:29" ht="58.9">
       <c r="A3" s="43" t="s">
         <v>81</v>
       </c>
@@ -5270,7 +6294,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4">
+    <row r="4" spans="1:29" ht="44.45">
       <c r="A4" s="43" t="s">
         <v>65</v>
       </c>
@@ -5334,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -5381,32 +6405,32 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="9"/>
+    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="9"/>
+    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="9"/>
+    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.85546875" style="9"/>
+    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -5481,7 +6505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
@@ -5559,7 +6583,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="19" t="s">
         <v>81</v>
       </c>
@@ -5607,7 +6631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="A6" s="20" t="s">
         <v>43</v>
       </c>
@@ -5654,33 +6678,33 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="9"/>
+    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="9"/>
+    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="9"/>
+    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="9"/>
+    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -5755,7 +6779,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
@@ -5828,7 +6852,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="20" t="s">
         <v>43</v>
       </c>
@@ -5870,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="Y6" s="37" t="s">
         <v>44</v>
       </c>
@@ -5910,34 +6934,34 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="9"/>
+    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="9"/>
+    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="9"/>
+    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="9"/>
+    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -6012,7 +7036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -6070,7 +7094,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8">
+    <row r="3" spans="1:29" ht="58.9">
       <c r="A3" s="11" t="s">
         <v>102</v>
       </c>
@@ -6105,7 +7129,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.15">
       <c r="A4" s="11" t="s">
         <v>105</v>
       </c>
@@ -6154,7 +7178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="28.9">
       <c r="Y6" s="37" t="s">
         <v>44</v>
       </c>
@@ -6194,103 +7218,103 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="1"/>
-    <col min="28" max="28" width="10.88671875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="1"/>
+    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.85546875" style="1"/>
+    <col min="28" max="28" width="10.85546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="66" t="s">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65" t="s">
+      <c r="C1" s="66"/>
+      <c r="D1" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65" t="s">
+      <c r="F1" s="66"/>
+      <c r="G1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65" t="s">
+      <c r="K1" s="66"/>
+      <c r="L1" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65" t="s">
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="65" t="s">
+      <c r="T1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="65" t="s">
+      <c r="U1" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="65" t="s">
+      <c r="V1" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="65" t="s">
+      <c r="W1" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="X1" s="65"/>
+      <c r="X1" s="66"/>
       <c r="Y1" s="34" t="s">
         <v>19</v>
       </c>
@@ -6305,41 +7329,41 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="28.9">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="66">
+      <c r="B2" s="67">
         <v>1.5</v>
       </c>
-      <c r="C2" s="65"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="66">
+      <c r="E2" s="67">
         <v>32</v>
       </c>
-      <c r="F2" s="65"/>
+      <c r="F2" s="66"/>
       <c r="G2" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H2" s="65" t="s">
+      <c r="H2" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="67"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
       <c r="L2" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="M2" s="65" t="s">
+      <c r="M2" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="67">
+      <c r="N2" s="68">
         <v>45258</v>
       </c>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
       <c r="Q2" s="39" t="s">
         <v>108</v>
       </c>
@@ -6355,9 +7379,9 @@
       <c r="U2" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
       <c r="Y2" s="37" t="s">
         <v>29</v>
       </c>
@@ -6372,35 +7396,35 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2">
+    <row r="3" spans="1:29" ht="43.15">
       <c r="A3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" s="66">
+      <c r="B3" s="67">
         <v>1</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="65" t="s">
+      <c r="H3" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
       <c r="L3" s="6" t="s">
         <v>83</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
       <c r="Q3" s="39" t="s">
         <v>112</v>
       </c>
@@ -6416,9 +7440,9 @@
       <c r="U3" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
       <c r="Y3" s="37" t="s">
         <v>35</v>
       </c>
@@ -6433,41 +7457,41 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8">
+    <row r="4" spans="1:29" ht="28.9">
       <c r="A4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B4" s="67">
         <v>15.5</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="66"/>
       <c r="G4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="I4" s="65"/>
+      <c r="I4" s="66"/>
       <c r="J4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
       <c r="Y4" s="37" t="s">
         <v>38</v>
       </c>
@@ -6482,39 +7506,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2">
+    <row r="5" spans="1:29" ht="43.15">
       <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B5" s="66">
+      <c r="B5" s="67">
         <v>13</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="66"/>
       <c r="G5" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="65" t="s">
+      <c r="H5" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="65"/>
-      <c r="U5" s="65"/>
-      <c r="V5" s="65"/>
-      <c r="W5" s="65"/>
-      <c r="X5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="66"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="66"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="66"/>
+      <c r="T5" s="66"/>
+      <c r="U5" s="66"/>
+      <c r="V5" s="66"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="66"/>
       <c r="Y5" s="37" t="s">
         <v>41</v>
       </c>
@@ -6529,35 +7553,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2">
+    <row r="6" spans="1:29" ht="43.15">
       <c r="A6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="66">
+      <c r="B6" s="67">
         <v>0.5</v>
       </c>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
       <c r="Y6" s="37" t="s">
         <v>44</v>
       </c>
@@ -6572,35 +7596,35 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8">
+    <row r="7" spans="1:29" ht="28.9">
       <c r="A7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="67">
         <v>0.5</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="65"/>
-      <c r="L7" s="65"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="65"/>
-      <c r="O7" s="65"/>
-      <c r="P7" s="65"/>
-      <c r="Q7" s="65"/>
-      <c r="R7" s="65"/>
-      <c r="S7" s="65"/>
-      <c r="T7" s="65"/>
-      <c r="U7" s="65"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="65"/>
-      <c r="X7" s="65"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
+      <c r="P7" s="66"/>
+      <c r="Q7" s="66"/>
+      <c r="R7" s="66"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
       <c r="AA7" s="39"/>
@@ -6612,30 +7636,30 @@
       </c>
     </row>
     <row r="8" spans="1:29">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="65"/>
-      <c r="R8" s="65"/>
-      <c r="S8" s="65"/>
-      <c r="T8" s="65"/>
-      <c r="U8" s="65"/>
-      <c r="V8" s="65"/>
-      <c r="W8" s="65"/>
-      <c r="X8" s="65"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
       <c r="AA8" s="9"/>
@@ -6643,30 +7667,30 @@
       <c r="AC8" s="9"/>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="65"/>
-      <c r="P9" s="65"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="66"/>
+      <c r="O9" s="66"/>
+      <c r="P9" s="66"/>
+      <c r="Q9" s="66"/>
+      <c r="R9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
@@ -6674,30 +7698,30 @@
       <c r="AC9" s="9"/>
     </row>
     <row r="10" spans="1:29">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
       <c r="AA10" s="9"/>
@@ -6713,17 +7737,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c5b94f7a7d878a7fecd43d2acdcd7b20">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7492081eccc3045ea9567a1b818a29ef" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
     <xsd:import namespace="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
     <xsd:element name="properties">
@@ -6737,6 +7752,7 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -6760,6 +7776,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="12" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="13" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -6892,44 +7913,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A38500-6ADC-431F-BA8C-A867F5DA2085}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9706D6EB-3EE0-4D55-A968-0A24F6D585AB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7257B34B-EECB-4DD3-AD26-A24A0F56E34D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
-    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D36689B-DFEA-4C98-899A-EE48070A2AE5}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D36689B-DFEA-4C98-899A-EE48070A2AE5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A38500-6ADC-431F-BA8C-A867F5DA2085}"/>
 </file>
--- a/dataSources/WSR/BEQOM.xlsx
+++ b/dataSources/WSR/BEQOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="13_ncr:1_{2E7FB178-3BAE-4E2F-8A9D-18A3F998456C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54453E66-4C5C-4551-9F93-7137809A4CC7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B264D-35CF-41A6-9A54-DAEF721CD6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="8" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="153">
   <si>
     <t>Task Name</t>
   </si>
@@ -540,6 +540,9 @@
   </si>
   <si>
     <t>Sizing and Backlog Refinement meeting</t>
+  </si>
+  <si>
+    <t>Project Metrics</t>
   </si>
 </sst>
 </file>
@@ -1335,37 +1338,37 @@
   </sheetPr>
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+    <sheetView topLeftCell="R1" workbookViewId="0">
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -1440,7 +1443,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.9">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="21" t="s">
         <v>39</v>
       </c>
@@ -1565,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="22" t="s">
         <v>45</v>
       </c>
@@ -1609,36 +1612,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.109375" style="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -1783,7 +1786,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.9">
+    <row r="3" spans="1:29" ht="58.8">
       <c r="A3" s="55" t="s">
         <v>124</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.45">
+    <row r="4" spans="1:29" ht="44.4">
       <c r="A4" s="55" t="s">
         <v>126</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="39" t="s">
         <v>131</v>
       </c>
@@ -2132,36 +2135,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.109375" style="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -2300,7 +2303,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.45">
+    <row r="3" spans="1:29" ht="44.4">
       <c r="A3" s="55" t="s">
         <v>134</v>
       </c>
@@ -2351,7 +2354,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.45">
+    <row r="4" spans="1:29" ht="44.4">
       <c r="A4" s="36" t="s">
         <v>135</v>
       </c>
@@ -2449,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="36" t="s">
         <v>137</v>
       </c>
@@ -2637,36 +2640,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.109375" style="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -2811,7 +2814,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.45">
+    <row r="3" spans="1:29" ht="44.4">
       <c r="A3" s="55"/>
       <c r="B3" s="55"/>
       <c r="C3" s="65"/>
@@ -2862,7 +2865,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="65"/>
@@ -2952,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="65"/>
@@ -3138,36 +3141,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.109375" style="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -3304,7 +3307,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.15">
+    <row r="3" spans="1:29" ht="43.2">
       <c r="A3" s="55" t="s">
         <v>144</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="65"/>
@@ -3433,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="65"/>
@@ -3613,36 +3616,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.109375" style="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -3722,7 +3725,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33">
+    <row r="2" spans="1:29" ht="33.6">
       <c r="A2" s="64" t="s">
         <v>114</v>
       </c>
@@ -3787,7 +3790,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="44.4">
       <c r="A3" s="36" t="s">
         <v>147</v>
       </c>
@@ -3844,7 +3847,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="44.4">
       <c r="A4" s="36" t="s">
         <v>148</v>
       </c>
@@ -3893,7 +3896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="57.6">
       <c r="A5" s="68"/>
       <c r="B5" s="66"/>
       <c r="C5" s="65"/>
@@ -3932,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="36"/>
       <c r="B6" s="39"/>
       <c r="C6" s="65"/>
@@ -3971,7 +3974,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="8"/>
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
@@ -4108,40 +4111,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D1839F-6EF4-4A16-927C-2D28B33E6D05}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="26.44140625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.109375" style="1"/>
+    <col min="28" max="28" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -4215,13 +4219,13 @@
       </c>
       <c r="AA1" s="35"/>
       <c r="AB1" s="33" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="AC1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33">
+    <row r="2" spans="1:29" ht="33.6">
       <c r="A2" s="64" t="s">
         <v>114</v>
       </c>
@@ -4286,7 +4290,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="60.75">
+    <row r="3" spans="1:29" ht="44.4">
       <c r="A3" s="36" t="s">
         <v>150</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="45.75">
+    <row r="4" spans="1:29" ht="44.4">
       <c r="A4" s="39"/>
       <c r="B4" s="55"/>
       <c r="C4" s="65"/>
@@ -4380,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="76.5">
+    <row r="5" spans="1:29" ht="57.6">
       <c r="A5" s="68"/>
       <c r="B5" s="66"/>
       <c r="C5" s="65"/>
@@ -4419,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="30.75">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="36"/>
       <c r="B6" s="39"/>
       <c r="C6" s="65"/>
@@ -4458,7 +4462,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="60.75">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="8"/>
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
@@ -4602,33 +4606,33 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -4703,7 +4707,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.9">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -4770,7 +4774,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.9">
+    <row r="3" spans="1:29" ht="58.8">
       <c r="A3" s="42" t="s">
         <v>55</v>
       </c>
@@ -4810,7 +4814,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="42" t="s">
         <v>58</v>
       </c>
@@ -4865,7 +4869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="21" t="s">
         <v>61</v>
       </c>
@@ -4918,33 +4922,33 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -5019,7 +5023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.9">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -5085,7 +5089,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.9">
+    <row r="3" spans="1:29" ht="58.8">
       <c r="A3" s="42" t="s">
         <v>55</v>
       </c>
@@ -5126,7 +5130,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="42" t="s">
         <v>58</v>
       </c>
@@ -5200,7 +5204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="21" t="s">
         <v>61</v>
       </c>
@@ -5253,33 +5257,33 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.140625" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -5354,7 +5358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.9">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -5420,7 +5424,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.9">
+    <row r="3" spans="1:29" ht="58.8">
       <c r="A3" s="42" t="s">
         <v>75</v>
       </c>
@@ -5476,7 +5480,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.45">
+    <row r="4" spans="1:29" ht="44.4">
       <c r="A4" s="42" t="s">
         <v>58</v>
       </c>
@@ -5540,7 +5544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="22" t="s">
         <v>45</v>
       </c>
@@ -5587,32 +5591,32 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.85546875" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -5687,7 +5691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.9">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
@@ -5765,7 +5769,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="19" t="s">
         <v>75</v>
       </c>
@@ -5813,7 +5817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
@@ -5860,33 +5864,33 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -5961,7 +5965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.9">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="Y6" s="36" t="s">
         <v>46</v>
       </c>
@@ -6116,34 +6120,34 @@
       <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="9"/>
-    <col min="4" max="4" width="15.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="9"/>
-    <col min="7" max="7" width="73.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="9"/>
-    <col min="12" max="12" width="89.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="9"/>
-    <col min="18" max="18" width="65.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -6218,7 +6222,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.9">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -6276,7 +6280,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.9">
+    <row r="3" spans="1:29" ht="58.8">
       <c r="A3" s="11" t="s">
         <v>95</v>
       </c>
@@ -6311,7 +6315,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="11" t="s">
         <v>98</v>
       </c>
@@ -6360,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="Y6" s="36" t="s">
         <v>46</v>
       </c>
@@ -6400,38 +6404,38 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.85546875" style="1"/>
-    <col min="28" max="28" width="10.85546875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="1"/>
+    <col min="28" max="28" width="10.88671875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -6511,7 +6515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.9">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -6578,7 +6582,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.15">
+    <row r="3" spans="1:29" ht="43.2">
       <c r="A3" s="3" t="s">
         <v>103</v>
       </c>
@@ -6639,7 +6643,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.9">
+    <row r="4" spans="1:29" ht="28.8">
       <c r="A4" s="3" t="s">
         <v>98</v>
       </c>
@@ -6688,7 +6692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.15">
+    <row r="5" spans="1:29" ht="43.2">
       <c r="A5" s="3" t="s">
         <v>110</v>
       </c>
@@ -6735,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.15">
+    <row r="6" spans="1:29" ht="43.2">
       <c r="A6" s="3" t="s">
         <v>112</v>
       </c>
@@ -6778,7 +6782,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.9">
+    <row r="7" spans="1:29" ht="28.8">
       <c r="A7" s="8" t="s">
         <v>45</v>
       </c>
@@ -6926,36 +6930,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="73.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="89.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1"/>
-    <col min="18" max="18" width="65.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.109375" style="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -7035,7 +7039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.9">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="54" t="s">
         <v>113</v>
       </c>
@@ -7100,7 +7104,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.45">
+    <row r="3" spans="1:29" ht="44.4">
       <c r="A3" s="55" t="s">
         <v>116</v>
       </c>
@@ -7153,7 +7157,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.15">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="55" t="s">
         <v>119</v>
       </c>
@@ -7251,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.9">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="3"/>
       <c r="B6" s="66"/>
       <c r="C6" s="65"/>
@@ -7428,18 +7432,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7620,13 +7624,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A38500-6ADC-431F-BA8C-A867F5DA2085}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D36689B-DFEA-4C98-899A-EE48070A2AE5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D36689B-DFEA-4C98-899A-EE48070A2AE5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A38500-6ADC-431F-BA8C-A867F5DA2085}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9706D6EB-3EE0-4D55-A968-0A24F6D585AB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9706D6EB-3EE0-4D55-A968-0A24F6D585AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
+    <ds:schemaRef ds:uri="46e2485f-814c-41c1-b1d1-92fb45bc36b1"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/BEQOM.xlsx
+++ b/dataSources/WSR/BEQOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205B264D-35CF-41A6-9A54-DAEF721CD6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118DEC20-5345-4A8E-AD6B-6D3DE38CF053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="8" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="26 Dec 2023" sheetId="16" r:id="rId13"/>
     <sheet name="2 Jan 2024" sheetId="17" r:id="rId14"/>
     <sheet name="8 Jan 2024" sheetId="18" r:id="rId15"/>
+    <sheet name="15 Jan 2023" sheetId="21" r:id="rId16"/>
+    <sheet name="22 Jan 2023" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="162">
   <si>
     <t>Task Name</t>
   </si>
@@ -521,7 +523,7 @@
         <sz val="11"/>
         <color rgb="FF242424"/>
         <rFont val="Segoe UI"/>
-        <charset val="1"/>
+        <family val="2"/>
       </rPr>
       <t>izing and backlog refinement</t>
     </r>
@@ -543,13 +545,51 @@
   </si>
   <si>
     <t>Project Metrics</t>
+  </si>
+  <si>
+    <t>HICA-3024</t>
+  </si>
+  <si>
+    <t>Point payment data mismatch -Individual vs multiyear reports</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>HICA-3275 files validation</t>
+  </si>
+  <si>
+    <t>Sprint review and retrospective meeting</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sprint Review and Retrospective meeting</t>
+    </r>
+  </si>
+  <si>
+    <t>HICA-3275 data Validation</t>
+  </si>
+  <si>
+    <t>HICA-3290 Test Scenarios Execution</t>
+  </si>
+  <si>
+    <t>1/30/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,12 +601,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -617,37 +659,41 @@
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF242424"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF242424"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -673,7 +719,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -686,6 +732,30 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -883,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1052,6 +1122,47 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1342,33 +1453,33 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6328125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.08984375" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -1443,7 +1554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -1489,7 +1600,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="21" t="s">
         <v>32</v>
       </c>
@@ -1525,7 +1636,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="21" t="s">
         <v>39</v>
       </c>
@@ -1547,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="58">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -1568,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29">
       <c r="A6" s="22" t="s">
         <v>45</v>
       </c>
@@ -1589,7 +1700,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="58">
       <c r="AA7" s="38"/>
       <c r="AB7" s="36" t="s">
         <v>48</v>
@@ -1608,40 +1719,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D0D2120-3FED-4299-8562-9E37D53D1F87}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.109375" style="1"/>
-    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.08984375" style="1"/>
+    <col min="29" max="29" width="13.6328125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -1721,7 +1832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6">
+    <row r="2" spans="1:29" ht="33">
       <c r="A2" s="54" t="s">
         <v>113</v>
       </c>
@@ -1762,13 +1873,21 @@
         <v>36</v>
       </c>
       <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
+      <c r="Q2" s="65" t="s">
+        <v>153</v>
+      </c>
       <c r="R2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
+        <v>154</v>
+      </c>
+      <c r="S2" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="U2" s="65" t="s">
+        <v>24</v>
+      </c>
       <c r="V2" s="65"/>
       <c r="W2" s="65"/>
       <c r="X2" s="65"/>
@@ -1786,7 +1905,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8">
+    <row r="3" spans="1:29" ht="59">
       <c r="A3" s="55" t="s">
         <v>124</v>
       </c>
@@ -1841,7 +1960,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4">
+    <row r="4" spans="1:29" ht="44.5">
       <c r="A4" s="55" t="s">
         <v>126</v>
       </c>
@@ -1894,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.6">
+    <row r="5" spans="1:29" ht="58">
       <c r="A5" s="39" t="s">
         <v>129</v>
       </c>
@@ -1945,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29">
       <c r="A6" s="39" t="s">
         <v>131</v>
       </c>
@@ -1984,17 +2103,17 @@
         <v>46</v>
       </c>
       <c r="Z6" s="37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="38"/>
       <c r="AB6" s="36" t="s">
         <v>47</v>
       </c>
       <c r="AC6" s="37">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="57.6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="58">
       <c r="A7" s="65"/>
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
@@ -2131,40 +2250,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89076B33-CD47-4283-B83F-DD9083D4FD00}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" style="59" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.109375" style="1"/>
-    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.08984375" style="1"/>
+    <col min="29" max="29" width="13.6328125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -2303,7 +2422,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.4">
+    <row r="3" spans="1:29" ht="44.5">
       <c r="A3" s="55" t="s">
         <v>134</v>
       </c>
@@ -2354,7 +2473,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4">
+    <row r="4" spans="1:29" ht="44.5">
       <c r="A4" s="36" t="s">
         <v>135</v>
       </c>
@@ -2405,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.6">
+    <row r="5" spans="1:29" ht="58">
       <c r="A5" s="36" t="s">
         <v>136</v>
       </c>
@@ -2452,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29">
       <c r="A6" s="36" t="s">
         <v>137</v>
       </c>
@@ -2496,10 +2615,10 @@
         <v>47</v>
       </c>
       <c r="AC6" s="37">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="57.6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="58">
       <c r="A7" s="8"/>
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
@@ -2636,40 +2755,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852C4ED1-A998-4A03-88AB-78E6A0935FFB}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.109375" style="1"/>
-    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.08984375" style="1"/>
+    <col min="29" max="29" width="13.6328125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -2749,7 +2868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6">
+    <row r="2" spans="1:29" ht="33">
       <c r="A2" s="39" t="s">
         <v>138</v>
       </c>
@@ -2814,7 +2933,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.4">
+    <row r="3" spans="1:29" ht="44.5">
       <c r="A3" s="55"/>
       <c r="B3" s="55"/>
       <c r="C3" s="65"/>
@@ -2865,7 +2984,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="65"/>
@@ -2908,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.6">
+    <row r="5" spans="1:29" ht="58">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="65"/>
@@ -2955,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="65"/>
@@ -2997,10 +3116,10 @@
         <v>47</v>
       </c>
       <c r="AC6" s="37">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="57.6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="58">
       <c r="A7" s="8"/>
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
@@ -3138,39 +3257,39 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.109375" style="1"/>
-    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.08984375" style="1"/>
+    <col min="29" max="29" width="13.6328125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -3307,7 +3426,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="55" t="s">
         <v>144</v>
       </c>
@@ -3358,7 +3477,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="65"/>
@@ -3397,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.6">
+    <row r="5" spans="1:29" ht="58">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="65"/>
@@ -3436,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="65"/>
@@ -3472,10 +3591,10 @@
         <v>47</v>
       </c>
       <c r="AC6" s="37">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="57.6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="58">
       <c r="A7" s="8"/>
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
@@ -3612,40 +3731,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B672ACA1-E197-4B1C-B9E9-5D91F995A00B}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.109375" style="1"/>
-    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.08984375" style="1"/>
+    <col min="29" max="29" width="13.6328125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -3725,7 +3844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6">
+    <row r="2" spans="1:29" ht="33">
       <c r="A2" s="64" t="s">
         <v>114</v>
       </c>
@@ -3790,7 +3909,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.4">
+    <row r="3" spans="1:29" ht="44.5">
       <c r="A3" s="36" t="s">
         <v>147</v>
       </c>
@@ -3847,7 +3966,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4">
+    <row r="4" spans="1:29" ht="44.5">
       <c r="A4" s="36" t="s">
         <v>148</v>
       </c>
@@ -3896,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.6">
+    <row r="5" spans="1:29" ht="58">
       <c r="A5" s="68"/>
       <c r="B5" s="66"/>
       <c r="C5" s="65"/>
@@ -3935,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29">
       <c r="A6" s="36"/>
       <c r="B6" s="39"/>
       <c r="C6" s="65"/>
@@ -3971,10 +4090,10 @@
         <v>47</v>
       </c>
       <c r="AC6" s="37">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="57.6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="58">
       <c r="A7" s="8"/>
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
@@ -4111,41 +4230,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36D1839F-6EF4-4A16-927C-2D28B33E6D05}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="59" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.109375" style="1"/>
-    <col min="28" max="28" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="26.453125" style="59" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.08984375" style="1"/>
+    <col min="28" max="28" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.6328125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -4225,7 +4344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6">
+    <row r="2" spans="1:29" ht="33">
       <c r="A2" s="64" t="s">
         <v>114</v>
       </c>
@@ -4290,7 +4409,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.4">
+    <row r="3" spans="1:29" ht="30">
       <c r="A3" s="36" t="s">
         <v>150</v>
       </c>
@@ -4343,7 +4462,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4">
+    <row r="4" spans="1:29" ht="30">
       <c r="A4" s="39"/>
       <c r="B4" s="55"/>
       <c r="C4" s="65"/>
@@ -4384,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.6">
+    <row r="5" spans="1:29" ht="43.5">
       <c r="A5" s="68"/>
       <c r="B5" s="66"/>
       <c r="C5" s="65"/>
@@ -4423,7 +4542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29">
       <c r="A6" s="36"/>
       <c r="B6" s="39"/>
       <c r="C6" s="65"/>
@@ -4459,10 +4578,10 @@
         <v>47</v>
       </c>
       <c r="AC6" s="37">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="57.6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="29">
       <c r="A7" s="8"/>
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
@@ -4595,6 +4714,926 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3AD1BA-B234-40CD-899E-75EFA98BBE62}">
+  <dimension ref="A1:AC10"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:29" ht="29">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC1" s="74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="99.5" thickBot="1">
+      <c r="A2" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="77">
+        <v>1</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="70">
+        <v>12</v>
+      </c>
+      <c r="F2" s="72"/>
+      <c r="G2" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="M2" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="83">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="149" thickBot="1">
+      <c r="A3" s="76" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="77">
+        <v>10</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="83">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="44" thickBot="1">
+      <c r="A4" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="85">
+        <v>1</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="79"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="73" thickBot="1">
+      <c r="A5" s="84"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="78" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="44" thickBot="1">
+      <c r="A6" s="82"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" s="83">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="58.5" thickBot="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16031EB-89DD-48BC-880D-2F3E1744E747}">
+  <dimension ref="A1:AC10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:29" ht="29">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="72" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="72"/>
+      <c r="Y1" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC1" s="74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="116" thickBot="1">
+      <c r="A2" s="76" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="77">
+        <v>2</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="70">
+        <v>24</v>
+      </c>
+      <c r="F2" s="72"/>
+      <c r="G2" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Y2" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="83">
+        <v>20</v>
+      </c>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="82" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC2" s="83">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="149" thickBot="1">
+      <c r="A3" s="84" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="H3" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="81"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="81" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="83">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="83">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="73" thickBot="1">
+      <c r="A4" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="77">
+        <v>5.5</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="82" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="73" thickBot="1">
+      <c r="A5" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" s="85">
+        <v>16</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" s="79" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="Z5" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="71"/>
+      <c r="AB5" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC5" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="44" thickBot="1">
+      <c r="A6" s="82"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z6" s="83">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" s="83">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="58.5" thickBot="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="71"/>
+      <c r="AB7" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC7" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="72"/>
+      <c r="R8" s="72"/>
+      <c r="S8" s="72"/>
+      <c r="T8" s="72"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="69"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="72"/>
+      <c r="N10" s="72"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="72"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3487C39D-8830-4B14-909C-FE90E89724A1}">
   <sheetPr>
@@ -4606,33 +5645,33 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6328125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.08984375" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -4707,7 +5746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -4774,7 +5813,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8">
+    <row r="3" spans="1:29" ht="44.5">
       <c r="A3" s="42" t="s">
         <v>55</v>
       </c>
@@ -4814,7 +5853,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="42" t="s">
         <v>58</v>
       </c>
@@ -4848,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="58">
       <c r="A5" s="42" t="s">
         <v>60</v>
       </c>
@@ -4869,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29">
       <c r="A6" s="21" t="s">
         <v>61</v>
       </c>
@@ -4890,7 +5929,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="58">
       <c r="A7" s="22" t="s">
         <v>45</v>
       </c>
@@ -4922,33 +5961,33 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.54296875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.08984375" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -5023,7 +6062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -5089,7 +6128,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8">
+    <row r="3" spans="1:29" ht="44.5">
       <c r="A3" s="42" t="s">
         <v>55</v>
       </c>
@@ -5130,7 +6169,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="42" t="s">
         <v>58</v>
       </c>
@@ -5173,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="58">
       <c r="A5" s="42" t="s">
         <v>68</v>
       </c>
@@ -5204,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29">
       <c r="A6" s="21" t="s">
         <v>61</v>
       </c>
@@ -5225,7 +6264,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="58">
       <c r="A7" s="22" t="s">
         <v>45</v>
       </c>
@@ -5257,33 +6296,33 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.109375" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.08984375" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -5358,7 +6397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -5424,7 +6463,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8">
+    <row r="3" spans="1:29" ht="44.5">
       <c r="A3" s="42" t="s">
         <v>75</v>
       </c>
@@ -5480,7 +6519,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.4">
+    <row r="4" spans="1:29" ht="44.5">
       <c r="A4" s="42" t="s">
         <v>58</v>
       </c>
@@ -5519,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="58">
       <c r="A5" s="21" t="s">
         <v>61</v>
       </c>
@@ -5544,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29">
       <c r="A6" s="22" t="s">
         <v>45</v>
       </c>
@@ -5565,7 +6604,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="58">
       <c r="AA7" s="38"/>
       <c r="AB7" s="36" t="s">
         <v>48</v>
@@ -5591,32 +6630,32 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.88671875" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.90625" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -5691,7 +6730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
@@ -5735,7 +6774,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="19" t="s">
         <v>84</v>
       </c>
@@ -5769,7 +6808,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="19" t="s">
         <v>75</v>
       </c>
@@ -5796,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="58">
       <c r="A5" s="18" t="s">
         <v>61</v>
       </c>
@@ -5817,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29">
       <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
@@ -5838,7 +6877,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="58">
       <c r="AA7" s="38"/>
       <c r="AB7" s="36" t="s">
         <v>48</v>
@@ -5864,33 +6903,33 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -5965,7 +7004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
@@ -6009,7 +7048,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="57.6">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
@@ -6038,7 +7077,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -6065,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="58">
       <c r="Y5" s="36" t="s">
         <v>43</v>
       </c>
@@ -6080,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29">
       <c r="Y6" s="36" t="s">
         <v>46</v>
       </c>
@@ -6095,7 +7134,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="58">
       <c r="AA7" s="38"/>
       <c r="AB7" s="36" t="s">
         <v>48</v>
@@ -6120,34 +7159,34 @@
       <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="9"/>
-    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="9"/>
-    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="9"/>
-    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="9"/>
-    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.88671875" style="9"/>
+    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="9"/>
+    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="9"/>
+    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="9"/>
+    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="9"/>
+    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.90625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -6222,7 +7261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -6280,7 +7319,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8">
+    <row r="3" spans="1:29" ht="44.5">
       <c r="A3" s="11" t="s">
         <v>95</v>
       </c>
@@ -6315,7 +7354,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="11" t="s">
         <v>98</v>
       </c>
@@ -6343,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="72">
+    <row r="5" spans="1:29" ht="58">
       <c r="A5" s="17" t="s">
         <v>45</v>
       </c>
@@ -6364,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29">
       <c r="Y6" s="36" t="s">
         <v>46</v>
       </c>
@@ -6379,7 +7418,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="58">
       <c r="AA7" s="38"/>
       <c r="AB7" s="36" t="s">
         <v>48</v>
@@ -6404,38 +7443,38 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.88671875" style="1"/>
-    <col min="28" max="28" width="10.88671875" style="1" customWidth="1"/>
-    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.90625" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.90625" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.90625" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.90625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.90625" style="1"/>
+    <col min="28" max="28" width="10.90625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.6328125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -6515,7 +7554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -6582,7 +7621,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2">
+    <row r="3" spans="1:29" ht="43.5">
       <c r="A3" s="3" t="s">
         <v>103</v>
       </c>
@@ -6643,7 +7682,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="28.8">
+    <row r="4" spans="1:29" ht="29">
       <c r="A4" s="3" t="s">
         <v>98</v>
       </c>
@@ -6692,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.2">
+    <row r="5" spans="1:29" ht="43.5">
       <c r="A5" s="3" t="s">
         <v>110</v>
       </c>
@@ -6739,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.2">
+    <row r="6" spans="1:29" ht="43.5">
       <c r="A6" s="3" t="s">
         <v>112</v>
       </c>
@@ -6782,7 +7821,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="28.8">
+    <row r="7" spans="1:29" ht="29">
       <c r="A7" s="8" t="s">
         <v>45</v>
       </c>
@@ -6930,36 +7969,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="1"/>
-    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="1"/>
-    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" style="1"/>
-    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="1"/>
-    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.109375" style="1"/>
-    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" style="1"/>
+    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.08984375" style="1"/>
+    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.08984375" style="1"/>
+    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="1"/>
+    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.08984375" style="1"/>
+    <col min="29" max="29" width="13.6328125" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -7039,7 +8078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29">
       <c r="A2" s="54" t="s">
         <v>113</v>
       </c>
@@ -7104,7 +8143,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.4">
+    <row r="3" spans="1:29" ht="44.5">
       <c r="A3" s="55" t="s">
         <v>116</v>
       </c>
@@ -7157,7 +8196,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.2">
+    <row r="4" spans="1:29" ht="43.5">
       <c r="A4" s="55" t="s">
         <v>119</v>
       </c>
@@ -7204,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="57.6">
+    <row r="5" spans="1:29" ht="58">
       <c r="A5" s="55" t="s">
         <v>121</v>
       </c>
@@ -7255,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="28.8">
+    <row r="6" spans="1:29" ht="29">
       <c r="A6" s="3"/>
       <c r="B6" s="66"/>
       <c r="C6" s="65"/>
@@ -7298,7 +8337,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="57.6">
+    <row r="7" spans="1:29" ht="58">
       <c r="A7" s="8"/>
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
@@ -7432,21 +8471,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -7623,24 +8647,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D36689B-DFEA-4C98-899A-EE48070A2AE5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A38500-6ADC-431F-BA8C-A867F5DA2085}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9706D6EB-3EE0-4D55-A968-0A24F6D585AB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7657,4 +8679,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D36689B-DFEA-4C98-899A-EE48070A2AE5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A38500-6ADC-431F-BA8C-A867F5DA2085}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/BEQOM.xlsx
+++ b/dataSources/WSR/BEQOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\meenakshi.kasi\Downloads\WSR 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118DEC20-5345-4A8E-AD6B-6D3DE38CF053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{206AE77C-90D5-4CEF-ADCD-F47E96123C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="8" r:id="rId1"/>
@@ -28,8 +28,8 @@
     <sheet name="26 Dec 2023" sheetId="16" r:id="rId13"/>
     <sheet name="2 Jan 2024" sheetId="17" r:id="rId14"/>
     <sheet name="8 Jan 2024" sheetId="18" r:id="rId15"/>
-    <sheet name="15 Jan 2023" sheetId="21" r:id="rId16"/>
-    <sheet name="22 Jan 2023" sheetId="22" r:id="rId17"/>
+    <sheet name="15 Jan 2024" sheetId="21" r:id="rId16"/>
+    <sheet name="22 Jan 2024" sheetId="22" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -1453,33 +1453,33 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.6328125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.08984375" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -1554,7 +1554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="21" t="s">
         <v>32</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="21" t="s">
         <v>39</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="21" t="s">
         <v>42</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="22" t="s">
         <v>45</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="AA7" s="38"/>
       <c r="AB7" s="36" t="s">
         <v>48</v>
@@ -1723,36 +1723,36 @@
       <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.08984375" style="1"/>
-    <col min="29" max="29" width="13.6328125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.109375" style="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -1832,7 +1832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33">
+    <row r="2" spans="1:29" ht="33.6">
       <c r="A2" s="54" t="s">
         <v>113</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="59">
+    <row r="3" spans="1:29" ht="58.8">
       <c r="A3" s="55" t="s">
         <v>124</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5">
+    <row r="4" spans="1:29" ht="44.4">
       <c r="A4" s="55" t="s">
         <v>126</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58">
+    <row r="5" spans="1:29" ht="57.6">
       <c r="A5" s="39" t="s">
         <v>129</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="39" t="s">
         <v>131</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="65"/>
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
@@ -2254,36 +2254,36 @@
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.08984375" style="1"/>
-    <col min="29" max="29" width="13.6328125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.90625" style="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.109375" style="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -2422,7 +2422,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5">
+    <row r="3" spans="1:29" ht="44.4">
       <c r="A3" s="55" t="s">
         <v>134</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5">
+    <row r="4" spans="1:29" ht="44.4">
       <c r="A4" s="36" t="s">
         <v>135</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58">
+    <row r="5" spans="1:29" ht="57.6">
       <c r="A5" s="36" t="s">
         <v>136</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="36" t="s">
         <v>137</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="8"/>
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
@@ -2759,36 +2759,36 @@
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.08984375" style="1"/>
-    <col min="29" max="29" width="13.6328125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.109375" style="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -2868,7 +2868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33">
+    <row r="2" spans="1:29" ht="33.6">
       <c r="A2" s="39" t="s">
         <v>138</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5">
+    <row r="3" spans="1:29" ht="44.4">
       <c r="A3" s="55"/>
       <c r="B3" s="55"/>
       <c r="C3" s="65"/>
@@ -2984,7 +2984,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="65"/>
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58">
+    <row r="5" spans="1:29" ht="57.6">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="65"/>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="65"/>
@@ -3119,7 +3119,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="8"/>
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
@@ -3256,40 +3256,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4750780C-F289-42C6-8AC3-EA4130E81E52}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.08984375" style="1"/>
-    <col min="29" max="29" width="13.6328125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.109375" style="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="AA1" s="35"/>
       <c r="AB1" s="33" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="AC1" s="34" t="s">
         <v>22</v>
@@ -3426,7 +3426,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="43.2">
       <c r="A3" s="55" t="s">
         <v>144</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="55"/>
       <c r="B4" s="55"/>
       <c r="C4" s="65"/>
@@ -3516,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58">
+    <row r="5" spans="1:29" ht="57.6">
       <c r="A5" s="65"/>
       <c r="B5" s="66"/>
       <c r="C5" s="65"/>
@@ -3555,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="39"/>
       <c r="B6" s="39"/>
       <c r="C6" s="65"/>
@@ -3594,7 +3594,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="8"/>
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
@@ -3735,36 +3735,36 @@
       <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.08984375" style="1"/>
-    <col min="29" max="29" width="13.6328125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.109375" style="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -3844,7 +3844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33">
+    <row r="2" spans="1:29" ht="33.6">
       <c r="A2" s="64" t="s">
         <v>114</v>
       </c>
@@ -3909,7 +3909,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5">
+    <row r="3" spans="1:29" ht="44.4">
       <c r="A3" s="36" t="s">
         <v>147</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5">
+    <row r="4" spans="1:29" ht="44.4">
       <c r="A4" s="36" t="s">
         <v>148</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58">
+    <row r="5" spans="1:29" ht="57.6">
       <c r="A5" s="68"/>
       <c r="B5" s="66"/>
       <c r="C5" s="65"/>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="36"/>
       <c r="B6" s="39"/>
       <c r="C6" s="65"/>
@@ -4093,7 +4093,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="8"/>
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
@@ -4231,40 +4231,40 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AD15" sqref="AD15"/>
+      <selection activeCell="AB1" sqref="AB1:AC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="26.453125" style="59" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="9.08984375" style="1"/>
-    <col min="28" max="28" width="13.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.6328125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="26.44140625" style="59" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="9.109375" style="1"/>
+    <col min="28" max="28" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -4344,7 +4344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33">
+    <row r="2" spans="1:29" ht="33.6">
       <c r="A2" s="64" t="s">
         <v>114</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30">
+    <row r="3" spans="1:29" ht="33.6">
       <c r="A3" s="36" t="s">
         <v>150</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.5">
+    <row r="5" spans="1:29" ht="43.2">
       <c r="A5" s="68"/>
       <c r="B5" s="66"/>
       <c r="C5" s="65"/>
@@ -4581,7 +4581,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="29">
+    <row r="7" spans="1:29" ht="28.8">
       <c r="A7" s="8"/>
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
@@ -4722,9 +4722,9 @@
       <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="29">
+    <row r="1" spans="1:29" ht="28.8">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="99.5" thickBot="1">
+    <row r="2" spans="1:29" ht="101.4" thickBot="1">
       <c r="A2" s="76" t="s">
         <v>114</v>
       </c>
@@ -4858,7 +4858,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="149" thickBot="1">
+    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1">
       <c r="A3" s="76" t="s">
         <v>156</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44" thickBot="1">
+    <row r="4" spans="1:29" ht="43.8" thickBot="1">
       <c r="A4" s="84" t="s">
         <v>61</v>
       </c>
@@ -4956,7 +4956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="73" thickBot="1">
+    <row r="5" spans="1:29" ht="72.599999999999994" thickBot="1">
       <c r="A5" s="84"/>
       <c r="B5" s="70"/>
       <c r="C5" s="72"/>
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="44" thickBot="1">
+    <row r="6" spans="1:29" ht="29.4" thickBot="1">
       <c r="A6" s="82"/>
       <c r="B6" s="84"/>
       <c r="C6" s="72"/>
@@ -5038,7 +5038,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58.5" thickBot="1">
+    <row r="7" spans="1:29" ht="58.2" thickBot="1">
       <c r="A7" s="8"/>
       <c r="B7" s="70"/>
       <c r="C7" s="72"/>
@@ -5175,13 +5175,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16031EB-89DD-48BC-880D-2F3E1744E747}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:29" ht="29">
+    <row r="1" spans="1:29" ht="28.8">
       <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="116" thickBot="1">
+    <row r="2" spans="1:29" ht="118.2" thickBot="1">
       <c r="A2" s="76" t="s">
         <v>114</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="149" thickBot="1">
+    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1">
       <c r="A3" s="84" t="s">
         <v>150</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="73" thickBot="1">
+    <row r="4" spans="1:29" ht="72.599999999999994" thickBot="1">
       <c r="A4" s="76" t="s">
         <v>159</v>
       </c>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="73" thickBot="1">
+    <row r="5" spans="1:29" ht="72.599999999999994" thickBot="1">
       <c r="A5" s="84" t="s">
         <v>160</v>
       </c>
@@ -5462,7 +5462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="44" thickBot="1">
+    <row r="6" spans="1:29" ht="29.4" thickBot="1">
       <c r="A6" s="82"/>
       <c r="B6" s="84"/>
       <c r="C6" s="72"/>
@@ -5501,7 +5501,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58.5" thickBot="1">
+    <row r="7" spans="1:29" ht="58.2" thickBot="1">
       <c r="A7" s="8"/>
       <c r="B7" s="70"/>
       <c r="C7" s="72"/>
@@ -5645,33 +5645,33 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6328125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.08984375" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -5746,7 +5746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5">
+    <row r="3" spans="1:29" ht="58.8">
       <c r="A3" s="42" t="s">
         <v>55</v>
       </c>
@@ -5853,7 +5853,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="42" t="s">
         <v>58</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="42" t="s">
         <v>60</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="21" t="s">
         <v>61</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="22" t="s">
         <v>45</v>
       </c>
@@ -5961,33 +5961,33 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.54296875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.08984375" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -6062,7 +6062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5">
+    <row r="3" spans="1:29" ht="58.8">
       <c r="A3" s="42" t="s">
         <v>55</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="42" t="s">
         <v>58</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="42" t="s">
         <v>68</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="21" t="s">
         <v>61</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="22" t="s">
         <v>45</v>
       </c>
@@ -6296,33 +6296,33 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.08984375" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" style="9" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -6397,7 +6397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="21" t="s">
         <v>23</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5">
+    <row r="3" spans="1:29" ht="58.8">
       <c r="A3" s="42" t="s">
         <v>75</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="44.5">
+    <row r="4" spans="1:29" ht="44.4">
       <c r="A4" s="42" t="s">
         <v>58</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="21" t="s">
         <v>61</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="22" t="s">
         <v>45</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="AA7" s="38"/>
       <c r="AB7" s="36" t="s">
         <v>48</v>
@@ -6630,32 +6630,32 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.90625" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.88671875" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -6730,7 +6730,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="19" t="s">
         <v>84</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="19" t="s">
         <v>75</v>
       </c>
@@ -6835,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="18" t="s">
         <v>61</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="20" t="s">
         <v>45</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="AA7" s="38"/>
       <c r="AB7" s="36" t="s">
         <v>48</v>
@@ -6903,33 +6903,33 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -7004,7 +7004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="18" t="s">
         <v>23</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="57.6">
       <c r="A3" s="18" t="s">
         <v>61</v>
       </c>
@@ -7077,7 +7077,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58">
+    <row r="5" spans="1:29" ht="72">
       <c r="Y5" s="36" t="s">
         <v>43</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="Y6" s="36" t="s">
         <v>46</v>
       </c>
@@ -7134,7 +7134,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="AA7" s="38"/>
       <c r="AB7" s="36" t="s">
         <v>48</v>
@@ -7159,34 +7159,34 @@
       <selection activeCell="AE4" sqref="AE4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="9"/>
-    <col min="4" max="4" width="15.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="9"/>
-    <col min="7" max="7" width="73.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="9"/>
-    <col min="12" max="12" width="89.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="9"/>
-    <col min="18" max="18" width="65.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="8.90625" style="9"/>
+    <col min="1" max="1" width="17.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="9"/>
+    <col min="4" max="4" width="15.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="9"/>
+    <col min="7" max="7" width="73.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="9"/>
+    <col min="12" max="12" width="89.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="9"/>
+    <col min="18" max="18" width="65.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -7261,7 +7261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="11" t="s">
         <v>23</v>
       </c>
@@ -7319,7 +7319,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5">
+    <row r="3" spans="1:29" ht="58.8">
       <c r="A3" s="11" t="s">
         <v>95</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="11" t="s">
         <v>98</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58">
+    <row r="5" spans="1:29" ht="72">
       <c r="A5" s="17" t="s">
         <v>45</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="Y6" s="36" t="s">
         <v>46</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="AA7" s="38"/>
       <c r="AB7" s="36" t="s">
         <v>48</v>
@@ -7443,38 +7443,38 @@
       <selection activeCell="Y7" sqref="Y7:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.90625" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.90625" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.90625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8.90625" style="1"/>
-    <col min="28" max="28" width="10.90625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="13.6328125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="8.88671875" style="1"/>
+    <col min="28" max="28" width="10.88671875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -7554,7 +7554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.5">
+    <row r="3" spans="1:29" ht="43.2">
       <c r="A3" s="3" t="s">
         <v>103</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="29">
+    <row r="4" spans="1:29" ht="28.8">
       <c r="A4" s="3" t="s">
         <v>98</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="43.5">
+    <row r="5" spans="1:29" ht="43.2">
       <c r="A5" s="3" t="s">
         <v>110</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="43.5">
+    <row r="6" spans="1:29" ht="43.2">
       <c r="A6" s="3" t="s">
         <v>112</v>
       </c>
@@ -7821,7 +7821,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="29">
+    <row r="7" spans="1:29" ht="28.8">
       <c r="A7" s="8" t="s">
         <v>45</v>
       </c>
@@ -7969,36 +7969,36 @@
       <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" style="1"/>
-    <col min="4" max="4" width="15.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="1"/>
-    <col min="7" max="7" width="73.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.08984375" style="1"/>
-    <col min="12" max="12" width="89.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.54296875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="1"/>
-    <col min="18" max="18" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="9.08984375" style="1"/>
-    <col min="29" max="29" width="13.6328125" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="1"/>
+    <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="73.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="1"/>
+    <col min="12" max="12" width="89.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="1"/>
+    <col min="18" max="18" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="9.109375" style="1"/>
+    <col min="29" max="29" width="13.6640625" style="1" customWidth="1"/>
+    <col min="30" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -8078,7 +8078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="29">
+    <row r="2" spans="1:29" ht="28.8">
       <c r="A2" s="54" t="s">
         <v>113</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.5">
+    <row r="3" spans="1:29" ht="44.4">
       <c r="A3" s="55" t="s">
         <v>116</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="43.5">
+    <row r="4" spans="1:29" ht="43.2">
       <c r="A4" s="55" t="s">
         <v>119</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="58">
+    <row r="5" spans="1:29" ht="57.6">
       <c r="A5" s="55" t="s">
         <v>121</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" ht="29">
+    <row r="6" spans="1:29" ht="28.8">
       <c r="A6" s="3"/>
       <c r="B6" s="66"/>
       <c r="C6" s="65"/>
@@ -8337,7 +8337,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:29" ht="58">
+    <row r="7" spans="1:29" ht="57.6">
       <c r="A7" s="8"/>
       <c r="B7" s="66"/>
       <c r="C7" s="65"/>
@@ -8471,6 +8471,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -8647,22 +8662,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A38500-6ADC-431F-BA8C-A867F5DA2085}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D36689B-DFEA-4C98-899A-EE48070A2AE5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9706D6EB-3EE0-4D55-A968-0A24F6D585AB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8679,21 +8696,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D36689B-DFEA-4C98-899A-EE48070A2AE5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A38500-6ADC-431F-BA8C-A867F5DA2085}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/dataSources/WSR/BEQOM.xlsx
+++ b/dataSources/WSR/BEQOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VigneshD\repository\vsCode\KMDV-Dash\dataSources\WSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1973CC47-892C-48FB-8772-D1318BBCA8EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7FED96-C7C8-43B6-8D83-04D1FAFECD5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2 Oct 2023" sheetId="8" r:id="rId1"/>
@@ -30,6 +30,9 @@
     <sheet name="8 Jan 2024" sheetId="18" r:id="rId15"/>
     <sheet name="15 Jan 2024" sheetId="21" r:id="rId16"/>
     <sheet name="22 Jan 2024" sheetId="22" r:id="rId17"/>
+    <sheet name="29 Jan 2024" sheetId="23" r:id="rId18"/>
+    <sheet name="5 Feb 2024" sheetId="24" r:id="rId19"/>
+    <sheet name="12 Feb 2024" sheetId="25" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -52,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="171">
   <si>
     <t>Task Name</t>
   </si>
@@ -565,6 +568,97 @@
   </si>
   <si>
     <t>Automation coverage</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sizing and Backlog Refinement</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint review and retrsopective meeting</t>
+  </si>
+  <si>
+    <t>Sprint Review and Retrospective meeting</t>
+  </si>
+  <si>
+    <t>HICA-3290 Execution</t>
+  </si>
+  <si>
+    <t>Regression for Individual and Muti-year reports</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Sprint Review and Retrospective meeting</t>
+    </r>
+  </si>
+  <si>
+    <t>Sizing and backlog refinement</t>
+  </si>
+  <si>
+    <t>HICA-2409 Test Scenarios Execution</t>
+  </si>
+  <si>
+    <t>HICA-3352 Test Scenarios Execution</t>
+  </si>
+  <si>
+    <r>
+      <t>HICA-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3275 Test Scenarios Execution</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint Retrospective</t>
+  </si>
+  <si>
+    <t>Sprint Retrospective call</t>
+  </si>
+  <si>
+    <r>
+      <t>Attend</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF242424"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> Sprint sizing session</t>
+    </r>
+  </si>
+  <si>
+    <t>Sprint Planning</t>
+  </si>
+  <si>
+    <t>HICA-3275 Test Scenarios Execution</t>
   </si>
 </sst>
 </file>
@@ -914,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1118,6 +1212,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1405,8 +1508,8 @@
   </sheetPr>
   <dimension ref="A1:AC7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1510,7 +1613,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" ht="15" thickBot="1">
       <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
@@ -1552,11 +1655,11 @@
       <c r="AB2" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="35">
+      <c r="AC2" s="78">
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="28.8">
+    <row r="3" spans="1:29" ht="29.4" thickBot="1">
       <c r="A3" s="21" t="s">
         <v>26</v>
       </c>
@@ -1588,11 +1691,11 @@
       <c r="AB3" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" s="35">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="43.2">
+      <c r="AC3" s="78">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.8" thickBot="1">
       <c r="A4" s="21" t="s">
         <v>31</v>
       </c>
@@ -1610,11 +1713,11 @@
       <c r="AB4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AC4" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1">
       <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
@@ -1631,11 +1734,11 @@
       <c r="AB5" t="s">
         <v>153</v>
       </c>
-      <c r="AC5" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="15.6">
+      <c r="AC5" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
       <c r="A6" s="22" t="s">
         <v>33</v>
       </c>
@@ -1652,8 +1755,8 @@
       <c r="AB6" t="s">
         <v>154</v>
       </c>
-      <c r="AC6" s="35">
-        <v>118</v>
+      <c r="AC6" s="78">
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1661,7 +1764,7 @@
       <c r="AB7" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="78">
         <v>0</v>
       </c>
     </row>
@@ -1676,7 +1779,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1788,7 +1891,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6">
+    <row r="2" spans="1:29" ht="34.200000000000003" thickBot="1">
       <c r="A2" s="52" t="s">
         <v>98</v>
       </c>
@@ -1857,11 +1960,11 @@
       <c r="AB2" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="35">
+      <c r="AC2" s="78">
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="58.8">
+    <row r="3" spans="1:29" ht="59.4" thickBot="1">
       <c r="A3" s="53" t="s">
         <v>109</v>
       </c>
@@ -1912,11 +2015,11 @@
       <c r="AB3" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" s="35">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="33.6">
+      <c r="AC3" s="78">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="34.200000000000003" thickBot="1">
       <c r="A4" s="53" t="s">
         <v>111</v>
       </c>
@@ -1965,11 +2068,11 @@
       <c r="AB4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AC4" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1">
       <c r="A5" s="37" t="s">
         <v>114</v>
       </c>
@@ -2016,11 +2119,11 @@
       <c r="AB5" t="s">
         <v>153</v>
       </c>
-      <c r="AC5" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AC5" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1">
       <c r="A6" s="37" t="s">
         <v>116</v>
       </c>
@@ -2065,8 +2168,8 @@
       <c r="AB6" t="s">
         <v>154</v>
       </c>
-      <c r="AC6" s="35">
-        <v>126</v>
+      <c r="AC6" s="78">
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -2100,7 +2203,7 @@
       <c r="AB7" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="78">
         <v>0</v>
       </c>
     </row>
@@ -2207,7 +2310,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2374,7 +2477,7 @@
       <c r="AB2" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="35">
+      <c r="AC2" s="78">
         <v>353</v>
       </c>
     </row>
@@ -2425,8 +2528,8 @@
       <c r="AB3" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" s="35">
-        <v>402</v>
+      <c r="AC3" s="78">
+        <v>1730</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="30">
@@ -2476,7 +2579,7 @@
       <c r="AB4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="35">
+      <c r="AC4" s="78">
         <v>0</v>
       </c>
     </row>
@@ -2523,7 +2626,7 @@
       <c r="AB5" t="s">
         <v>153</v>
       </c>
-      <c r="AC5" s="35">
+      <c r="AC5" s="78">
         <v>0</v>
       </c>
     </row>
@@ -2570,8 +2673,8 @@
       <c r="AB6" t="s">
         <v>154</v>
       </c>
-      <c r="AC6" s="35">
-        <v>126</v>
+      <c r="AC6" s="78">
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.6">
@@ -2605,7 +2708,7 @@
       <c r="AB7" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="78">
         <v>0</v>
       </c>
     </row>
@@ -2712,7 +2815,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2824,7 +2927,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6">
+    <row r="2" spans="1:29" ht="34.200000000000003" thickBot="1">
       <c r="A2" s="37" t="s">
         <v>123</v>
       </c>
@@ -2885,11 +2988,11 @@
       <c r="AB2" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="35">
+      <c r="AC2" s="78">
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="33.6">
+    <row r="3" spans="1:29" ht="34.200000000000003" thickBot="1">
       <c r="A3" s="53"/>
       <c r="B3" s="53"/>
       <c r="C3" s="63"/>
@@ -2936,11 +3039,11 @@
       <c r="AB3" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" s="35">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AC3" s="78">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15" thickBot="1">
       <c r="A4" s="53"/>
       <c r="B4" s="53"/>
       <c r="C4" s="63"/>
@@ -2979,11 +3082,11 @@
       <c r="AB4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AC4" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1">
       <c r="A5" s="63"/>
       <c r="B5" s="64"/>
       <c r="C5" s="63"/>
@@ -3026,11 +3129,11 @@
       <c r="AB5" t="s">
         <v>153</v>
       </c>
-      <c r="AC5" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AC5" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="63"/>
@@ -3071,11 +3174,11 @@
       <c r="AB6" t="s">
         <v>154</v>
       </c>
-      <c r="AC6" s="35">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="15.6">
+      <c r="AC6" s="78">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="8"/>
       <c r="B7" s="64"/>
       <c r="C7" s="63"/>
@@ -3106,7 +3209,7 @@
       <c r="AB7" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="78">
         <v>0</v>
       </c>
     </row>
@@ -3213,7 +3316,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -3325,7 +3428,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="30">
+    <row r="2" spans="1:29" ht="30.6" thickBot="1">
       <c r="A2" s="52" t="s">
         <v>98</v>
       </c>
@@ -3378,11 +3481,11 @@
       <c r="AB2" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="35">
+      <c r="AC2" s="78">
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="43.2">
+    <row r="3" spans="1:29" ht="43.8" thickBot="1">
       <c r="A3" s="53" t="s">
         <v>129</v>
       </c>
@@ -3429,11 +3532,11 @@
       <c r="AB3" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" s="35">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
+      <c r="AC3" s="78">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="15" thickBot="1">
       <c r="A4" s="53"/>
       <c r="B4" s="53"/>
       <c r="C4" s="63"/>
@@ -3468,11 +3571,11 @@
       <c r="AB4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AC4" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1">
       <c r="A5" s="63"/>
       <c r="B5" s="64"/>
       <c r="C5" s="63"/>
@@ -3507,11 +3610,11 @@
       <c r="AB5" t="s">
         <v>153</v>
       </c>
-      <c r="AC5" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AC5" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="63"/>
@@ -3546,11 +3649,11 @@
       <c r="AB6" t="s">
         <v>154</v>
       </c>
-      <c r="AC6" s="35">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="15.6">
+      <c r="AC6" s="78">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="8"/>
       <c r="B7" s="64"/>
       <c r="C7" s="63"/>
@@ -3581,7 +3684,7 @@
       <c r="AB7" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="78">
         <v>0</v>
       </c>
     </row>
@@ -3688,7 +3791,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -3800,7 +3903,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6">
+    <row r="2" spans="1:29" ht="34.200000000000003" thickBot="1">
       <c r="A2" s="62" t="s">
         <v>99</v>
       </c>
@@ -3861,11 +3964,11 @@
       <c r="AB2" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="35">
+      <c r="AC2" s="78">
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.4">
+    <row r="3" spans="1:29" ht="45" thickBot="1">
       <c r="A3" s="34" t="s">
         <v>132</v>
       </c>
@@ -3918,11 +4021,11 @@
       <c r="AB3" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" s="35">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="30">
+      <c r="AC3" s="78">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="30.6" thickBot="1">
       <c r="A4" s="34" t="s">
         <v>133</v>
       </c>
@@ -3967,7 +4070,7 @@
       <c r="AB4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="35">
+      <c r="AC4" s="78">
         <v>0</v>
       </c>
     </row>
@@ -4006,11 +4109,11 @@
       <c r="AB5" t="s">
         <v>153</v>
       </c>
-      <c r="AC5" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AC5" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1">
       <c r="A6" s="34"/>
       <c r="B6" s="37"/>
       <c r="C6" s="63"/>
@@ -4045,11 +4148,11 @@
       <c r="AB6" t="s">
         <v>154</v>
       </c>
-      <c r="AC6" s="35">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="15.6">
+      <c r="AC6" s="78">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="8"/>
       <c r="B7" s="64"/>
       <c r="C7" s="63"/>
@@ -4080,7 +4183,7 @@
       <c r="AB7" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="78">
         <v>0</v>
       </c>
     </row>
@@ -4187,7 +4290,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AC10" sqref="AC10"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4300,7 +4403,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="33.6">
+    <row r="2" spans="1:29" ht="34.200000000000003" thickBot="1">
       <c r="A2" s="62" t="s">
         <v>99</v>
       </c>
@@ -4361,11 +4464,11 @@
       <c r="AB2" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="35">
+      <c r="AC2" s="78">
         <v>354</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="33.6">
+    <row r="3" spans="1:29" ht="34.200000000000003" thickBot="1">
       <c r="A3" s="34" t="s">
         <v>135</v>
       </c>
@@ -4414,11 +4517,11 @@
       <c r="AB3" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" s="35">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="16.8">
+      <c r="AC3" s="78">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="17.399999999999999" thickBot="1">
       <c r="A4" s="37"/>
       <c r="B4" s="53"/>
       <c r="C4" s="63"/>
@@ -4455,7 +4558,7 @@
       <c r="AB4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="35">
+      <c r="AC4" s="78">
         <v>0</v>
       </c>
     </row>
@@ -4494,11 +4597,11 @@
       <c r="AB5" t="s">
         <v>153</v>
       </c>
-      <c r="AC5" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AC5" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1">
       <c r="A6" s="34"/>
       <c r="B6" s="37"/>
       <c r="C6" s="63"/>
@@ -4533,11 +4636,11 @@
       <c r="AB6" t="s">
         <v>154</v>
       </c>
-      <c r="AC6" s="35">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="15.6">
+      <c r="AC6" s="78">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="8"/>
       <c r="B7" s="64"/>
       <c r="C7" s="63"/>
@@ -4568,7 +4671,7 @@
       <c r="AB7" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="78">
         <v>0</v>
       </c>
     </row>
@@ -4674,8 +4777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA3AD1BA-B234-40CD-899E-75EFA98BBE62}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="U5" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB7"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4861,7 +4964,7 @@
         <v>151</v>
       </c>
       <c r="AC3" s="78">
-        <v>403</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="29.4" thickBot="1">
@@ -4984,7 +5087,7 @@
         <v>154</v>
       </c>
       <c r="AC6" s="78">
-        <v>126</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15" thickBot="1">
@@ -5112,8 +5215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F16031EB-89DD-48BC-880D-2F3E1744E747}">
   <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB7"/>
+    <sheetView topLeftCell="U2" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5252,7 +5355,7 @@
         <v>150</v>
       </c>
       <c r="AC2" s="78">
-        <v>354</v>
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1">
@@ -5303,7 +5406,7 @@
         <v>151</v>
       </c>
       <c r="AC3" s="78">
-        <v>413</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="72.599999999999994" thickBot="1">
@@ -5431,14 +5534,14 @@
         <v>154</v>
       </c>
       <c r="Z6" s="78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="69"/>
       <c r="AB6" t="s">
         <v>154</v>
       </c>
       <c r="AC6" s="78">
-        <v>126</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="16.2" thickBot="1">
@@ -5574,6 +5677,940 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67328AF-66D3-40C2-BB21-F5E85193E00B}">
+  <dimension ref="A1:AC10"/>
+  <sheetViews>
+    <sheetView topLeftCell="V3" workbookViewId="0">
+      <selection activeCell="AF6" sqref="AF6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="25" max="25" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="28.8">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="101.4" thickBot="1">
+      <c r="A2" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="72">
+        <v>1.5</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="68">
+        <v>26.5</v>
+      </c>
+      <c r="F2" s="70"/>
+      <c r="G2" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z2" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC2" s="78">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1">
+      <c r="A3" s="79" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="80">
+        <v>2</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="74" t="s">
+        <v>158</v>
+      </c>
+      <c r="H3" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z3" s="78">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC3" s="78">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.8" thickBot="1">
+      <c r="A4" s="79" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="80">
+        <v>1</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="74" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z4" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC4" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72.599999999999994" thickBot="1">
+      <c r="A5" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="72">
+        <v>22</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z5" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC5" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="87" thickBot="1">
+      <c r="A6" s="77"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z6" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC6" s="78">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC7" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BCBD92-E384-4CC2-8E91-BBA439BDF3B8}">
+  <dimension ref="A1:AC10"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q2" workbookViewId="0">
+      <selection activeCell="AE6" sqref="AE6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="28.8">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="118.2" thickBot="1">
+      <c r="A2" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="72">
+        <v>2</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="68">
+        <v>21</v>
+      </c>
+      <c r="F2" s="70"/>
+      <c r="G2" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="75" t="s">
+        <v>161</v>
+      </c>
+      <c r="M2" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z2" s="78">
+        <v>10</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC2" s="78">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="151.80000000000001" thickBot="1">
+      <c r="A3" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="80">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="69"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z3" s="78">
+        <v>10</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC3" s="78">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="72.599999999999994" thickBot="1">
+      <c r="A4" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="72">
+        <v>15</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z4" s="78">
+        <v>10</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC4" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72.599999999999994" thickBot="1">
+      <c r="A5" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="80">
+        <v>3.5</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="74" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z5" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC5" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1">
+      <c r="A6" s="77"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z6" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC6" s="78">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="69"/>
+      <c r="AB7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC7" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3487C39D-8830-4B14-909C-FE90E89724A1}">
   <sheetPr>
@@ -5582,7 +6619,7 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -5686,7 +6723,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" ht="15" thickBot="1">
       <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
@@ -5749,11 +6786,11 @@
       <c r="AB2" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="35">
+      <c r="AC2" s="78">
         <v>291</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.4">
+    <row r="3" spans="1:29" ht="45" thickBot="1">
       <c r="A3" s="40" t="s">
         <v>40</v>
       </c>
@@ -5789,11 +6826,11 @@
       <c r="AB3" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" s="35">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="43.2">
+      <c r="AC3" s="78">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.8" thickBot="1">
       <c r="A4" s="40" t="s">
         <v>43</v>
       </c>
@@ -5823,11 +6860,11 @@
       <c r="AB4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="28.8">
+      <c r="AC4" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="29.4" thickBot="1">
       <c r="A5" s="40" t="s">
         <v>45</v>
       </c>
@@ -5844,11 +6881,11 @@
       <c r="AB5" t="s">
         <v>153</v>
       </c>
-      <c r="AC5" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AC5" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1">
       <c r="A6" s="21" t="s">
         <v>46</v>
       </c>
@@ -5865,11 +6902,11 @@
       <c r="AB6" t="s">
         <v>154</v>
       </c>
-      <c r="AC6" s="35">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="15.6">
+      <c r="AC6" s="78">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="22" t="s">
         <v>33</v>
       </c>
@@ -5880,12 +6917,480 @@
       <c r="AB7" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="78">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4CA9A3-8367-4B4F-8B10-54EA3BABCF1E}">
+  <dimension ref="A1:AC10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="5" max="5" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" ht="28.8">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="70" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="70" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="70" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z1" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AB1" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC1" s="33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="73.8" thickBot="1">
+      <c r="A2" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="72">
+        <v>1</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="68">
+        <v>24.5</v>
+      </c>
+      <c r="F2" s="70"/>
+      <c r="G2" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="85">
+        <v>45342</v>
+      </c>
+      <c r="O2" s="76"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="70"/>
+      <c r="T2" s="70"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="70"/>
+      <c r="W2" s="70"/>
+      <c r="X2" s="70"/>
+      <c r="Y2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z2" s="78">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="69"/>
+      <c r="AB2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC2" s="78">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="67.8" thickBot="1">
+      <c r="A3" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="80">
+        <v>2</v>
+      </c>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="84" t="s">
+        <v>167</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="69"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="75" t="s">
+        <v>168</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z3" s="78">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="69"/>
+      <c r="AB3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC3" s="78">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="151.80000000000001" thickBot="1">
+      <c r="A4" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="80">
+        <v>1</v>
+      </c>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="84" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="85">
+        <v>45342</v>
+      </c>
+      <c r="J4" s="69"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="76" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z4" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="69"/>
+      <c r="AB4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC4" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1">
+      <c r="A5" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="72">
+        <v>20.5</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z5" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="69"/>
+      <c r="AB5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC5" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1">
+      <c r="A6" s="77"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z6" s="78">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="69"/>
+      <c r="AB6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC6" s="78">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC7" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5898,7 +7403,7 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -6002,7 +7507,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" ht="15" thickBot="1">
       <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
@@ -6064,11 +7569,11 @@
       <c r="AB2" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="35">
+      <c r="AC2" s="78">
         <v>296</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="44.4">
+    <row r="3" spans="1:29" ht="45" thickBot="1">
       <c r="A3" s="40" t="s">
         <v>40</v>
       </c>
@@ -6105,11 +7610,11 @@
       <c r="AB3" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" s="35">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="43.2">
+      <c r="AC3" s="78">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="43.8" thickBot="1">
       <c r="A4" s="40" t="s">
         <v>43</v>
       </c>
@@ -6148,11 +7653,11 @@
       <c r="AB4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="28.8">
+      <c r="AC4" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="29.4" thickBot="1">
       <c r="A5" s="40" t="s">
         <v>53</v>
       </c>
@@ -6179,11 +7684,11 @@
       <c r="AB5" t="s">
         <v>153</v>
       </c>
-      <c r="AC5" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AC5" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1">
       <c r="A6" s="21" t="s">
         <v>46</v>
       </c>
@@ -6200,11 +7705,11 @@
       <c r="AB6" t="s">
         <v>154</v>
       </c>
-      <c r="AC6" s="35">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="15.6">
+      <c r="AC6" s="78">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="16.2" thickBot="1">
       <c r="A7" s="22" t="s">
         <v>33</v>
       </c>
@@ -6215,7 +7720,7 @@
       <c r="AB7" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="78">
         <v>0</v>
       </c>
     </row>
@@ -6233,7 +7738,7 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -6337,7 +7842,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" ht="15" thickBot="1">
       <c r="A2" s="21" t="s">
         <v>19</v>
       </c>
@@ -6399,11 +7904,11 @@
       <c r="AB2" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="35">
+      <c r="AC2" s="78">
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30">
+    <row r="3" spans="1:29" ht="30.6" thickBot="1">
       <c r="A3" s="40" t="s">
         <v>60</v>
       </c>
@@ -6455,11 +7960,11 @@
       <c r="AB3" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" s="35">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="44.4">
+      <c r="AC3" s="78">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="45" thickBot="1">
       <c r="A4" s="40" t="s">
         <v>43</v>
       </c>
@@ -6494,11 +7999,11 @@
       <c r="AB4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
+      <c r="AC4" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="15" thickBot="1">
       <c r="A5" s="21" t="s">
         <v>46</v>
       </c>
@@ -6519,11 +8024,11 @@
       <c r="AB5" t="s">
         <v>153</v>
       </c>
-      <c r="AC5" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="15.6">
+      <c r="AC5" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="16.2" thickBot="1">
       <c r="A6" s="22" t="s">
         <v>33</v>
       </c>
@@ -6540,8 +8045,8 @@
       <c r="AB6" t="s">
         <v>154</v>
       </c>
-      <c r="AC6" s="35">
-        <v>122</v>
+      <c r="AC6" s="78">
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -6549,7 +8054,7 @@
       <c r="AB7" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="78">
         <v>0</v>
       </c>
     </row>
@@ -6567,7 +8072,7 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -6710,7 +8215,7 @@
       <c r="AB2" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="35">
+      <c r="AC2" s="78">
         <v>318</v>
       </c>
     </row>
@@ -6744,8 +8249,8 @@
       <c r="AB3" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" s="35">
-        <v>367</v>
+      <c r="AC3" s="78">
+        <v>1695</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="28.8">
@@ -6771,7 +8276,7 @@
       <c r="AB4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="35">
+      <c r="AC4" s="78">
         <v>0</v>
       </c>
     </row>
@@ -6792,7 +8297,7 @@
       <c r="AB5" t="s">
         <v>153</v>
       </c>
-      <c r="AC5" s="35">
+      <c r="AC5" s="78">
         <v>0</v>
       </c>
     </row>
@@ -6813,8 +8318,8 @@
       <c r="AB6" t="s">
         <v>154</v>
       </c>
-      <c r="AC6" s="35">
-        <v>122</v>
+      <c r="AC6" s="78">
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -6822,7 +8327,7 @@
       <c r="AB7" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="78">
         <v>0</v>
       </c>
     </row>
@@ -6840,7 +8345,7 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -6984,7 +8489,7 @@
       <c r="AB2" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="35">
+      <c r="AC2" s="78">
         <v>318</v>
       </c>
     </row>
@@ -7013,8 +8518,8 @@
       <c r="AB3" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" s="35">
-        <v>367</v>
+      <c r="AC3" s="78">
+        <v>1695</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15.6">
@@ -7040,7 +8545,7 @@
       <c r="AB4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="35">
+      <c r="AC4" s="78">
         <v>0</v>
       </c>
     </row>
@@ -7055,7 +8560,7 @@
       <c r="AB5" t="s">
         <v>153</v>
       </c>
-      <c r="AC5" s="35">
+      <c r="AC5" s="78">
         <v>0</v>
       </c>
     </row>
@@ -7070,8 +8575,8 @@
       <c r="AB6" t="s">
         <v>154</v>
       </c>
-      <c r="AC6" s="35">
-        <v>122</v>
+      <c r="AC6" s="78">
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -7079,7 +8584,7 @@
       <c r="AB7" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="78">
         <v>0</v>
       </c>
     </row>
@@ -7096,7 +8601,7 @@
   <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -7255,7 +8760,7 @@
       <c r="AB2" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="35">
+      <c r="AC2" s="78">
         <v>321</v>
       </c>
     </row>
@@ -7290,8 +8795,8 @@
       <c r="AB3" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" s="35">
-        <v>370</v>
+      <c r="AC3" s="78">
+        <v>1698</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -7318,7 +8823,7 @@
       <c r="AB4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="35">
+      <c r="AC4" s="78">
         <v>0</v>
       </c>
     </row>
@@ -7339,7 +8844,7 @@
       <c r="AB5" t="s">
         <v>153</v>
       </c>
-      <c r="AC5" s="35">
+      <c r="AC5" s="78">
         <v>0</v>
       </c>
     </row>
@@ -7354,8 +8859,8 @@
       <c r="AB6" t="s">
         <v>154</v>
       </c>
-      <c r="AC6" s="35">
-        <v>123</v>
+      <c r="AC6" s="78">
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -7363,7 +8868,7 @@
       <c r="AB7" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="78">
         <v>0</v>
       </c>
     </row>
@@ -7380,7 +8885,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -7557,7 +9062,7 @@
       <c r="AB2" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="35">
+      <c r="AC2" s="78">
         <v>338</v>
       </c>
     </row>
@@ -7618,8 +9123,8 @@
       <c r="AB3" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" s="35">
-        <v>387</v>
+      <c r="AC3" s="78">
+        <v>1715</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -7667,7 +9172,7 @@
       <c r="AB4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="35">
+      <c r="AC4" s="78">
         <v>0</v>
       </c>
     </row>
@@ -7714,7 +9219,7 @@
       <c r="AB5" t="s">
         <v>153</v>
       </c>
-      <c r="AC5" s="35">
+      <c r="AC5" s="78">
         <v>0</v>
       </c>
     </row>
@@ -7757,8 +9262,8 @@
       <c r="AB6" t="s">
         <v>154</v>
       </c>
-      <c r="AC6" s="35">
-        <v>125</v>
+      <c r="AC6" s="78">
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.6">
@@ -7796,7 +9301,7 @@
       <c r="AB7" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="78">
         <v>0</v>
       </c>
     </row>
@@ -7906,7 +9411,7 @@
   <dimension ref="A1:AC10"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:AC1"/>
+      <selection activeCell="AC2" sqref="AC2:AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -8018,7 +9523,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="28.8">
+    <row r="2" spans="1:29" ht="29.4" thickBot="1">
       <c r="A2" s="52" t="s">
         <v>98</v>
       </c>
@@ -8079,11 +9584,11 @@
       <c r="AB2" t="s">
         <v>150</v>
       </c>
-      <c r="AC2" s="35">
+      <c r="AC2" s="78">
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="30">
+    <row r="3" spans="1:29" ht="30.6" thickBot="1">
       <c r="A3" s="53" t="s">
         <v>101</v>
       </c>
@@ -8132,11 +9637,11 @@
       <c r="AB3" t="s">
         <v>151</v>
       </c>
-      <c r="AC3" s="35">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="28.8">
+      <c r="AC3" s="78">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="29.4" thickBot="1">
       <c r="A4" s="53" t="s">
         <v>104</v>
       </c>
@@ -8179,11 +9684,11 @@
       <c r="AB4" t="s">
         <v>152</v>
       </c>
-      <c r="AC4" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" ht="28.8">
+      <c r="AC4" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="29.4" thickBot="1">
       <c r="A5" s="53" t="s">
         <v>106</v>
       </c>
@@ -8230,11 +9735,11 @@
       <c r="AB5" t="s">
         <v>153</v>
       </c>
-      <c r="AC5" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
+      <c r="AC5" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="15" thickBot="1">
       <c r="A6" s="3"/>
       <c r="B6" s="64"/>
       <c r="C6" s="63"/>
@@ -8273,8 +9778,8 @@
       <c r="AB6" t="s">
         <v>154</v>
       </c>
-      <c r="AC6" s="35">
-        <v>125</v>
+      <c r="AC6" s="78">
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15.6">
@@ -8308,7 +9813,7 @@
       <c r="AB7" t="s">
         <v>155</v>
       </c>
-      <c r="AC7" s="35">
+      <c r="AC7" s="78">
         <v>0</v>
       </c>
     </row>
@@ -8411,21 +9916,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000215C4F9D57D37439F8ACEF5C886EA75" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0c845befd03cfebab38c352a41d34e6a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2a5c4c29-2a22-48a5-946d-f6132279c68c" xmlns:ns3="46e2485f-814c-41c1-b1d1-92fb45bc36b1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ba1163b5c6633ba9dadda0673900e477" ns2:_="" ns3:_="">
     <xsd:import namespace="2a5c4c29-2a22-48a5-946d-f6132279c68c"/>
@@ -8602,24 +10092,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A38500-6ADC-431F-BA8C-A867F5DA2085}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D36689B-DFEA-4C98-899A-EE48070A2AE5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9706D6EB-3EE0-4D55-A968-0A24F6D585AB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8636,4 +10124,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D36689B-DFEA-4C98-899A-EE48070A2AE5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03A38500-6ADC-431F-BA8C-A867F5DA2085}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>